--- a/data/df-sample.xlsx
+++ b/data/df-sample.xlsx
@@ -487,7 +487,9 @@
       <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
       <c r="E3" t="n">
         <v>10</v>
       </c>

--- a/data/df-sample.xlsx
+++ b/data/df-sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,79 +436,62 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>項目1</t>
+          <t>年齢</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>項目2</t>
+          <t>身長</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>項目3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>項目4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>項目5</t>
+          <t>体重</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>165</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/df-sample.xlsx
+++ b/data/df-sample.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,65 +436,98 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>氏名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>性別</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>年齢</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>身長</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>体重</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>田中優花</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>12</v>
       </c>
-      <c r="B2" t="n">
+      <c r="D2" t="n">
         <v>140</v>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>鈴木一郎</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>25</v>
       </c>
-      <c r="B3" t="n">
+      <c r="D3" t="n">
         <v>170</v>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>高橋美香</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>34</v>
       </c>
-      <c r="B4" t="n">
+      <c r="D4" t="n">
         <v>158</v>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>佐藤和也</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>45</v>
       </c>
-      <c r="B5" t="n">
+      <c r="D5" t="n">
         <v>165</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/df-sample.xlsx
+++ b/data/df-sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>身長</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>体重</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,16 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>140</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>鈴木一郎</t>
+          <t>佐藤和也</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -485,46 +493,55 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>70.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>高橋美香</t>
+          <t>鈴木一郎</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>158</v>
+        <v>170</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>佐藤和也</t>
+          <t>高橋美香</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="E5" t="n">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/df-sample.xlsx
+++ b/data/df-sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>年齢</t>
+          <t>身長</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>身長</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>体重</t>
         </is>
@@ -472,12 +467,9 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D2" t="n">
-        <v>140</v>
-      </c>
-      <c r="E2" t="n">
         <v>40.5</v>
       </c>
     </row>
@@ -493,12 +485,9 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="D3" t="n">
-        <v>175</v>
-      </c>
-      <c r="E3" t="n">
         <v>70.2</v>
       </c>
     </row>
@@ -514,12 +503,9 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D4" t="n">
-        <v>170</v>
-      </c>
-      <c r="E4" t="n">
         <v>65</v>
       </c>
     </row>
@@ -535,12 +521,9 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="D5" t="n">
-        <v>158</v>
-      </c>
-      <c r="E5" t="n">
         <v>55.6</v>
       </c>
     </row>
